--- a/insert/dataToInsert/chaines2023.xlsx
+++ b/insert/dataToInsert/chaines2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mon Drive\Travail\Peip\S4\Projet Parcours Numérique\jewelryshop\insert\dataToInsert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB4F0C5-5F42-471A-A366-2ED49224B995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DD4408-B8B0-4E20-B359-87B519EDDB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>typeProduit</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>G00000000000000000006</t>
-  </si>
-  <si>
-    <t>Regenerate response</t>
   </si>
   <si>
     <t>idChaine</t>
@@ -71,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,12 +202,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -554,11 +545,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -914,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -932,36 +920,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>351</v>
@@ -975,13 +963,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>702</v>
@@ -995,13 +983,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>1053</v>
@@ -1011,11 +999,6 @@
       </c>
       <c r="G4">
         <v>2023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="84" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/insert/dataToInsert/chaines2023.xlsx
+++ b/insert/dataToInsert/chaines2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mon Drive\Travail\Peip\S4\Projet Parcours Numérique\jewelryshop\insert\dataToInsert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DD4408-B8B0-4E20-B359-87B519EDDB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5822342-DC80-40A6-943A-63508D9051D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataToInsert" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>typeProduit</t>
   </si>
@@ -62,6 +62,24 @@
   </si>
   <si>
     <t>CHAINES</t>
+  </si>
+  <si>
+    <t>G00000000000000000007</t>
+  </si>
+  <si>
+    <t>G00000000000000000008</t>
+  </si>
+  <si>
+    <t>G00000000000000000009</t>
+  </si>
+  <si>
+    <t>Chaîne en diamant</t>
+  </si>
+  <si>
+    <t>Chaîne en bois</t>
+  </si>
+  <si>
+    <t>Chaîne en plastique</t>
   </si>
 </sst>
 </file>
@@ -902,17 +920,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
     <col min="6" max="6" width="5.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
@@ -1001,6 +1019,66 @@
         <v>2023</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>55000</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
